--- a/tk_sistema_simulaTesteEmprego/Dados.xlsx
+++ b/tk_sistema_simulaTesteEmprego/Dados.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,6 +1007,566 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>hhhh</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>hhjhh</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>70</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Aprovado(a)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ggg</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>bb</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>50</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Reprovado(a)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>fff</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>nnn</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>50</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Reprovado(a)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>jjj</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>kkk</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>50</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Reprovado(a)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>hh</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>kk</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>50</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Reprovado(a)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>jj</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>jj</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>40</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Reprovado(a)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>50</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Reprovado(a)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>80</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Aprovado(a)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/tk_sistema_simulaTesteEmprego/Dados.xlsx
+++ b/tk_sistema_simulaTesteEmprego/Dados.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1567,6 +1567,286 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>gggu</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>gjhh</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>50</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Reprovado(a)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>gggu</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>gjhh</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>110</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Aprovado(a)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>gggu</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>gjhh</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>190</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Aprovado(a)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>uuu</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>60</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Aprovado(a)</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
